--- a/xlsx/himki.xlsx
+++ b/xlsx/himki.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>950000</v>
+        <v>1699000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>950000</v>
+        <v>1699000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>990000</v>
+        <v>1769000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>990000</v>
+        <v>1769000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1769000</v>
+        <v>1980000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_f7x/</t>
+          <t>https://autogansa.ru/cars/haval/h3/</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1769000</v>
+        <v>1980000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_f7x/</t>
+          <t>https://autogansa.ru/cars/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1980000</v>
+        <v>2759000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h3/</t>
+          <t>https://autogansa.ru/cars/haval/h5/</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1980000</v>
+        <v>2759000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h3/</t>
+          <t>https://autogansa.ru/cars/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2757000</v>
+        <v>3790000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_h5/</t>
+          <t>https://autogansa.ru/cars/haval/h9/</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2757000</v>
+        <v>3790000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_h5/</t>
+          <t>https://autogansa.ru/cars/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2616,30 +2616,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1595000</v>
+        <v>1019000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h6/</t>
+          <t>https://autogansa.ru/cars/haval/jolion/</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1595000</v>
+        <v>1019000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h6/</t>
+          <t>https://autogansa.ru/cars/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3349000</v>
+        <v>1119000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h9/</t>
+          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3349000</v>
+        <v>1119000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h9/</t>
+          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,129 +2682,129 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H9 New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3990000</v>
+        <v>890000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_h9/</t>
+          <t>https://autogansa.ru/cars/haval/m6/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3990000</v>
+        <v>890000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_h9/</t>
+          <t>https://autogansa.ru/cars/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1019000</v>
+        <v>590000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1019000</v>
+        <v>590000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1119000</v>
+        <v>864000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1119000</v>
+        <v>864000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>890000</v>
+        <v>1505000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/m6/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>890000</v>
+        <v>1505000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/m6/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>590000</v>
+        <v>5640000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>590000</v>
+        <v>5640000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>864000</v>
+        <v>1673000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>864000</v>
+        <v>1673000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Santa Fe New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1109000</v>
+        <v>3804000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1109000</v>
+        <v>3804000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1505000</v>
+        <v>899000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1505000</v>
+        <v>899000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mufasa</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1473000</v>
+        <v>1370000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/mufasa/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1473000</v>
+        <v>1370000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/mufasa/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,30 +2979,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Sonata New</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4990000</v>
+        <v>2214000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4990000</v>
+        <v>2214000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,30 +3012,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Palisade New</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5640000</v>
+        <v>4990000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5640000</v>
+        <v>4990000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,789 +3045,789 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1673000</v>
+        <v>1394000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1673000</v>
+        <v>1394000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Santa Fe New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3804000</v>
+        <v>1199000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3804000</v>
+        <v>1199000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>899000</v>
+        <v>1099000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>899000</v>
+        <v>1099000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1370000</v>
+        <v>1499000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1370000</v>
+        <v>1499000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sonata New</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2214000</v>
+        <v>2099000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2214000</v>
+        <v>2099000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4990000</v>
+        <v>2319000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4990000</v>
+        <v>2319000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1394000</v>
+        <v>1890000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1394000</v>
+        <v>1890000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1199000</v>
+        <v>3079000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1199000</v>
+        <v>3079000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1099000</v>
+        <v>1290000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1099000</v>
+        <v>1290000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1499000</v>
+        <v>2499000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1499000</v>
+        <v>2499000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2099000</v>
+        <v>1090000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2099000</v>
+        <v>1090000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2319000</v>
+        <v>1790000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2319000</v>
+        <v>1790000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1890000</v>
+        <v>1590000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1890000</v>
+        <v>1590000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3079000</v>
+        <v>2449900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3079000</v>
+        <v>2449900</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1290000</v>
+        <v>900000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1290000</v>
+        <v>900000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2499000</v>
+        <v>1055000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2499000</v>
+        <v>1055000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1090000</v>
+        <v>1300000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1090000</v>
+        <v>1300000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1790000</v>
+        <v>2150000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1790000</v>
+        <v>2150000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1590900</v>
+        <v>2249900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1590900</v>
+        <v>2249900</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2449900</v>
+        <v>713000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2449900</v>
+        <v>713000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>900000</v>
+        <v>723000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>900000</v>
+        <v>723000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1055000</v>
+        <v>850000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1055000</v>
+        <v>850000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1300000</v>
+        <v>2049000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1300000</v>
+        <v>2049000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2150000</v>
+        <v>3844900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2150000</v>
+        <v>3844900</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2249900</v>
+        <v>680000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2249900</v>
+        <v>680000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>713000</v>
+        <v>899000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>713000</v>
+        <v>899000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>723000</v>
+        <v>899000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>723000</v>
+        <v>899000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>850000</v>
+        <v>557000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>850000</v>
+        <v>557000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2049000</v>
+        <v>790000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2049000</v>
+        <v>790000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Seltos New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3844900</v>
+        <v>1375000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3844900</v>
+        <v>1375000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>680000</v>
+        <v>1621000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>680000</v>
+        <v>1621000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>899000</v>
+        <v>2960000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>899000</v>
+        <v>2960000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>899000</v>
+        <v>638000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>899000</v>
+        <v>638000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,30 +4134,30 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>557000</v>
+        <v>1143000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>557000</v>
+        <v>1143000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Sportage New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>790000</v>
+        <v>1599900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>790000</v>
+        <v>1599900</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Seltos New</t>
+          <t>Stinger</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1375000</v>
+        <v>2309900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1375000</v>
+        <v>2309900</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,261 +4233,261 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1621000</v>
+        <v>1374000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1621000</v>
+        <v>1374000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2960000</v>
+        <v>3199000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2960000</v>
+        <v>3199000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>638000</v>
+        <v>1290000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>638000</v>
+        <v>1290000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1143000</v>
+        <v>2599000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1143000</v>
+        <v>2599000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sportage New</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1599900</v>
+        <v>975000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1599900</v>
+        <v>975000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Stinger</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2309900</v>
+        <v>790000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2309900</v>
+        <v>790000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1374000</v>
+        <v>916000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1374000</v>
+        <v>916000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3199000</v>
+        <v>1060000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3199000</v>
+        <v>1060000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1290000</v>
+        <v>1239000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1290000</v>
+        <v>1239000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2599000</v>
+        <v>1266000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2599000</v>
+        <v>1266000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>975000</v>
+        <v>1149000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>975000</v>
+        <v>1149000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>790000</v>
+        <v>1329000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>790000</v>
+        <v>1329000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>916000</v>
+        <v>949000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>916000</v>
+        <v>949000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1060000</v>
+        <v>889000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1060000</v>
+        <v>889000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1239000</v>
+        <v>934000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1239000</v>
+        <v>934000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1266000</v>
+        <v>1249000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1266000</v>
+        <v>1249000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1149000</v>
+        <v>1049000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1149000</v>
+        <v>1049000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1329000</v>
+        <v>1149000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1329000</v>
+        <v>1149000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4827,30 +4827,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>949000</v>
+        <v>899000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>949000</v>
+        <v>899000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>889000</v>
+        <v>729900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>889000</v>
+        <v>729900</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4893,73 +4893,73 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>934000</v>
+        <v>811900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>934000</v>
+        <v>811900</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1249000</v>
+        <v>1099000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1249000</v>
+        <v>1099000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -4975,1202 +4975,1202 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1149000</v>
+        <v>1119000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1149000</v>
+        <v>1119000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>899000</v>
+        <v>5990000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>899000</v>
+        <v>5990000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>729900</v>
+        <v>6590000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>729900</v>
+        <v>6590000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>811900</v>
+        <v>6890000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>811900</v>
+        <v>6890000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1099000</v>
+        <v>7190000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1099000</v>
+        <v>7190000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1049000</v>
+        <v>1199000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1049000</v>
+        <v>1199000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1119000</v>
+        <v>1449000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1119000</v>
+        <v>1449000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5990000</v>
+        <v>2900000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5990000</v>
+        <v>2900000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>6590000</v>
+        <v>1889000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>6590000</v>
+        <v>1889000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>6890000</v>
+        <v>1528000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>6890000</v>
+        <v>1528000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>7190000</v>
+        <v>1604000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>7190000</v>
+        <v>1604000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1199000</v>
+        <v>2973000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1199000</v>
+        <v>2973000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1449000</v>
+        <v>1299000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1449000</v>
+        <v>1299000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2900000</v>
+        <v>1899000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2900000</v>
+        <v>1899000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1889000</v>
+        <v>2590000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1889000</v>
+        <v>2590000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1528000</v>
+        <v>790000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1528000</v>
+        <v>790000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1604000</v>
+        <v>690000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1604000</v>
+        <v>690000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2973000</v>
+        <v>855000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2973000</v>
+        <v>855000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1299000</v>
+        <v>1199000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1299000</v>
+        <v>1199000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1899000</v>
+        <v>1399000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1899000</v>
+        <v>1399000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2590000</v>
+        <v>1099000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2590000</v>
+        <v>1099000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>790000</v>
+        <v>1869900</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>790000</v>
+        <v>1869900</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>690000</v>
+        <v>3199000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>690000</v>
+        <v>3199000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>855000</v>
+        <v>2649000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>855000</v>
+        <v>2649000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1199000</v>
+        <v>3299000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1199000</v>
+        <v>3299000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1399000</v>
+        <v>3499000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1399000</v>
+        <v>3499000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1099000</v>
+        <v>917000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1099000</v>
+        <v>917000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1869900</v>
+        <v>805000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1869900</v>
+        <v>805000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3199000</v>
+        <v>1049000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3199000</v>
+        <v>1049000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2649000</v>
+        <v>831000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2649000</v>
+        <v>831000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3299000</v>
+        <v>690000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3299000</v>
+        <v>690000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3499000</v>
+        <v>650000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3499000</v>
+        <v>650000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>917000</v>
+        <v>670000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>917000</v>
+        <v>670000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>805000</v>
+        <v>490000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>805000</v>
+        <v>490000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1049000</v>
+        <v>530000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1049000</v>
+        <v>530000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>831000</v>
+        <v>520000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>831000</v>
+        <v>520000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6180,756 +6180,756 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>690000</v>
+        <v>550000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>690000</v>
+        <v>550000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>650000</v>
+        <v>7949000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>650000</v>
+        <v>7949000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>670000</v>
+        <v>990000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>670000</v>
+        <v>990000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>490000</v>
+        <v>1119000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>490000</v>
+        <v>1119000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>530000</v>
+        <v>1249000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>530000</v>
+        <v>1249000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>520000</v>
+        <v>740000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>520000</v>
+        <v>740000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>550000</v>
+        <v>930000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>550000</v>
+        <v>930000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>7949000</v>
+        <v>1899000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7949000</v>
+        <v>1899000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>990000</v>
+        <v>1299000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>990000</v>
+        <v>1299000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1119000</v>
+        <v>1222000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1119000</v>
+        <v>1222000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1249000</v>
+        <v>1950000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1249000</v>
+        <v>1950000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>740000</v>
+        <v>1218000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>740000</v>
+        <v>1218000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>930000</v>
+        <v>1380000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>930000</v>
+        <v>1380000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1899000</v>
+        <v>1481000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1899000</v>
+        <v>1481000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>S07</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1299000</v>
+        <v>2049000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1299000</v>
+        <v>2049000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1222000</v>
+        <v>2499000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1222000</v>
+        <v>2499000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1950000</v>
+        <v>4899000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1950000</v>
+        <v>4899000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1218000</v>
+        <v>1865000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1218000</v>
+        <v>1865000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1380000</v>
+        <v>2940000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1380000</v>
+        <v>2940000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1481000</v>
+        <v>1767000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1481000</v>
+        <v>1767000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>S07</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2049000</v>
+        <v>6190000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2049000</v>
+        <v>6190000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2499000</v>
+        <v>8724000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2499000</v>
+        <v>8724000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>4899000</v>
+        <v>11456500</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4899000</v>
+        <v>11456500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6939,30 +6939,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1865000</v>
+        <v>7690000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1865000</v>
+        <v>7690000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6972,450 +6972,252 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2940000</v>
+        <v>2729000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2940000</v>
+        <v>2729000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1767000</v>
+        <v>1499000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1767000</v>
+        <v>1499000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6190000</v>
+        <v>1499000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>6190000</v>
+        <v>1499000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>8724000</v>
+        <v>1285000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>8724000</v>
+        <v>1285000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>11456500</v>
+        <v>2438000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>11456500</v>
+        <v>2438000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>7690000</v>
+        <v>840300</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>7690000</v>
+        <v>840300</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2729000</v>
+        <v>4990000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2729000</v>
+        <v>4990000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1499000</v>
+        <v>2499000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1499000</v>
+        <v>2499000</v>
       </c>
       <c r="G206" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>637</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-      <c r="F207" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Jetta</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F208" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>649</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Passat</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>2438000</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F209" t="n">
-        <v>2438000</v>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>840300</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v>840300</v>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>655</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Teramont</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>4990000</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v>4990000</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F212" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="G212" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>

--- a/xlsx/himki.xlsx
+++ b/xlsx/himki.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1880,7 +1880,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1890,30 +1890,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Boyue</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1794000</v>
+        <v>1713000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/boyue/</t>
+          <t>https://autogansa.ru/cars/geely/cityray/</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1794000</v>
+        <v>1713000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/boyue/</t>
+          <t>https://autogansa.ru/cars/geely/cityray/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1923,30 +1923,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1713000</v>
+        <v>850000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/cityray/</t>
+          <t>https://autogansa.ru/cars/geely/coolray/</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1713000</v>
+        <v>850000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/cityray/</t>
+          <t>https://autogansa.ru/cars/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>850000</v>
+        <v>1115000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray/</t>
+          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>850000</v>
+        <v>1115000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray/</t>
+          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,30 +1989,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1115000</v>
+        <v>1040000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
+          <t>https://autogansa.ru/cars/geely/emgrand/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1115000</v>
+        <v>1040000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
+          <t>https://autogansa.ru/cars/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1040000</v>
+        <v>2899000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/emgrand/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1040000</v>
+        <v>2899000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/emgrand/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2055,30 +2055,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Monjaro New</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>699890</v>
+        <v>3099000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/gs/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>699890</v>
+        <v>3099000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/gs/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,30 +2088,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2899000</v>
+        <v>1854000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro/</t>
+          <t>https://autogansa.ru/cars/geely/okavango/</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2899000</v>
+        <v>1854000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro/</t>
+          <t>https://autogansa.ru/cars/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Monjaro New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3099000</v>
+        <v>2054000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
+          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3099000</v>
+        <v>2054000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
+          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1854000</v>
+        <v>2599000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango/</t>
+          <t>https://autogansa.ru/cars/geely/preface/</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1854000</v>
+        <v>2599000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango/</t>
+          <t>https://autogansa.ru/cars/geely/preface/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Tugella</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2054000</v>
+        <v>1620000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
+          <t>https://autogansa.ru/cars/geely/tugella/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2054000</v>
+        <v>1620000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
+          <t>https://autogansa.ru/cars/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2220,129 +2220,129 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2302000</v>
+        <v>1950000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/preface/</t>
+          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2302000</v>
+        <v>1950000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/preface/</t>
+          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Preface New</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2599000</v>
+        <v>1990000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/preface_new/</t>
+          <t>https://autogansa.ru/cars/haval/dargo/</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2599000</v>
+        <v>1990000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/preface_new/</t>
+          <t>https://autogansa.ru/cars/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tugella</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1620000</v>
+        <v>2190000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella/</t>
+          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1620000</v>
+        <v>2190000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella/</t>
+          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1950000</v>
+        <v>1699000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
+          <t>https://autogansa.ru/cars/haval/f7/</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1950000</v>
+        <v>1699000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
+          <t>https://autogansa.ru/cars/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1990000</v>
+        <v>1699000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo/</t>
+          <t>https://autogansa.ru/cars/haval/new_f7/</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1990000</v>
+        <v>1699000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo/</t>
+          <t>https://autogansa.ru/cars/haval/new_f7/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2190000</v>
+        <v>1769000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
+          <t>https://autogansa.ru/cars/haval/f7x/</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2190000</v>
+        <v>1769000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
+          <t>https://autogansa.ru/cars/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1699000</v>
+        <v>1980000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7/</t>
+          <t>https://autogansa.ru/cars/haval/h3/</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1699000</v>
+        <v>1980000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7/</t>
+          <t>https://autogansa.ru/cars/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1699000</v>
+        <v>2759000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_f7/</t>
+          <t>https://autogansa.ru/cars/haval/h5/</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1699000</v>
+        <v>2759000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_f7/</t>
+          <t>https://autogansa.ru/cars/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1769000</v>
+        <v>3790000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7x/</t>
+          <t>https://autogansa.ru/cars/haval/h9/</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1769000</v>
+        <v>3790000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7x/</t>
+          <t>https://autogansa.ru/cars/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1980000</v>
+        <v>1019000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h3/</t>
+          <t>https://autogansa.ru/cars/haval/jolion/</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1980000</v>
+        <v>1019000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h3/</t>
+          <t>https://autogansa.ru/cars/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2759000</v>
+        <v>1119000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h5/</t>
+          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2759000</v>
+        <v>1119000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h5/</t>
+          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,129 +2583,129 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3790000</v>
+        <v>890000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h9/</t>
+          <t>https://autogansa.ru/cars/haval/m6/</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3790000</v>
+        <v>890000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h9/</t>
+          <t>https://autogansa.ru/cars/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1019000</v>
+        <v>590000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1019000</v>
+        <v>590000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1119000</v>
+        <v>864000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta/</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1119000</v>
+        <v>864000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>890000</v>
+        <v>1505000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/m6/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>890000</v>
+        <v>1505000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/m6/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>590000</v>
+        <v>5640000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>590000</v>
+        <v>5640000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>864000</v>
+        <v>1673000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>864000</v>
+        <v>1673000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Santa Fe New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1505000</v>
+        <v>3804000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1505000</v>
+        <v>3804000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5640000</v>
+        <v>899000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5640000</v>
+        <v>899000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1673000</v>
+        <v>1370000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1673000</v>
+        <v>1370000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Santa Fe New</t>
+          <t>Sonata New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3804000</v>
+        <v>2214000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3804000</v>
+        <v>2214000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>899000</v>
+        <v>4990000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>899000</v>
+        <v>4990000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,129 +2946,129 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1370000</v>
+        <v>1394000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1370000</v>
+        <v>1394000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sonata New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2214000</v>
+        <v>1199000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2214000</v>
+        <v>1199000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4990000</v>
+        <v>1099000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4990000</v>
+        <v>1099000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1394000</v>
+        <v>1499000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1394000</v>
+        <v>1499000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1199000</v>
+        <v>2099000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1199000</v>
+        <v>2099000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,195 +3111,195 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1099000</v>
+        <v>2319000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1099000</v>
+        <v>2319000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1499000</v>
+        <v>1890000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1499000</v>
+        <v>1890000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2099000</v>
+        <v>3079000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2099000</v>
+        <v>3079000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2319000</v>
+        <v>1290000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2319000</v>
+        <v>1290000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1890000</v>
+        <v>2499000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1890000</v>
+        <v>2499000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3079000</v>
+        <v>1090000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3079000</v>
+        <v>1090000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1290000</v>
+        <v>1790000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1290000</v>
+        <v>1790000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,30 +3342,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2499000</v>
+        <v>1590000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2499000</v>
+        <v>1590000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,129 +3375,129 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1090000</v>
+        <v>2449900</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1090000</v>
+        <v>2449900</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1790000</v>
+        <v>900000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1790000</v>
+        <v>900000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1590000</v>
+        <v>1055000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1590000</v>
+        <v>1055000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2449900</v>
+        <v>1300000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2449900</v>
+        <v>1300000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,129 +3507,129 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>900000</v>
+        <v>2150000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>900000</v>
+        <v>2150000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1055000</v>
+        <v>2249900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1055000</v>
+        <v>2249900</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1300000</v>
+        <v>713000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1300000</v>
+        <v>713000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2150000</v>
+        <v>723000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2150000</v>
+        <v>723000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2249900</v>
+        <v>850000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2249900</v>
+        <v>850000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>713000</v>
+        <v>2049000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>713000</v>
+        <v>2049000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>723000</v>
+        <v>3844900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>723000</v>
+        <v>3844900</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>850000</v>
+        <v>680000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>850000</v>
+        <v>680000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2049000</v>
+        <v>899000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2049000</v>
+        <v>899000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3844900</v>
+        <v>899000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3844900</v>
+        <v>899000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>680000</v>
+        <v>557000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>680000</v>
+        <v>557000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>899000</v>
+        <v>790000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>899000</v>
+        <v>790000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Seltos New</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>899000</v>
+        <v>1375000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>899000</v>
+        <v>1375000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>557000</v>
+        <v>1621000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>557000</v>
+        <v>1621000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>790000</v>
+        <v>2960000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>790000</v>
+        <v>2960000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Seltos New</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1375000</v>
+        <v>638000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1375000</v>
+        <v>638000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1621000</v>
+        <v>1143000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1621000</v>
+        <v>1143000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Sportage New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2960000</v>
+        <v>1599900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2960000</v>
+        <v>1599900</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Stinger</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>638000</v>
+        <v>2309900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>638000</v>
+        <v>2309900</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,162 +4134,162 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1143000</v>
+        <v>1374000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1143000</v>
+        <v>1374000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sportage New</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1599900</v>
+        <v>3199000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1599900</v>
+        <v>3199000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Stinger</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2309900</v>
+        <v>1290000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2309900</v>
+        <v>1290000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1374000</v>
+        <v>2599000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1374000</v>
+        <v>2599000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3199000</v>
+        <v>975000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3199000</v>
+        <v>975000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1290000</v>
+        <v>790000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1290000</v>
+        <v>790000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2599000</v>
+        <v>916000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2599000</v>
+        <v>916000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>975000</v>
+        <v>1060000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>975000</v>
+        <v>1060000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>790000</v>
+        <v>1239000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>790000</v>
+        <v>1239000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>916000</v>
+        <v>1266000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>916000</v>
+        <v>1266000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1060000</v>
+        <v>1149000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1060000</v>
+        <v>1149000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1239000</v>
+        <v>1329000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1239000</v>
+        <v>1329000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1266000</v>
+        <v>949000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1266000</v>
+        <v>949000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1149000</v>
+        <v>889000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1149000</v>
+        <v>889000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1329000</v>
+        <v>934000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1329000</v>
+        <v>934000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>949000</v>
+        <v>1249000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>949000</v>
+        <v>1249000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>889000</v>
+        <v>1049000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>889000</v>
+        <v>1049000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>934000</v>
+        <v>1149000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>934000</v>
+        <v>1149000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1249000</v>
+        <v>899000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1249000</v>
+        <v>899000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1049000</v>
+        <v>729900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1049000</v>
+        <v>729900</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,228 +4794,228 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1149000</v>
+        <v>811900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1149000</v>
+        <v>811900</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>899000</v>
+        <v>1099000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>899000</v>
+        <v>1099000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>729900</v>
+        <v>1049000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>729900</v>
+        <v>1049000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>811900</v>
+        <v>1119000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>811900</v>
+        <v>1119000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1099000</v>
+        <v>5990000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1099000</v>
+        <v>5990000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1049000</v>
+        <v>6590000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1049000</v>
+        <v>6590000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1119000</v>
+        <v>6890000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1119000</v>
+        <v>6890000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5025,129 +5025,129 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>5990000</v>
+        <v>7190000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>5990000</v>
+        <v>7190000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6590000</v>
+        <v>1199000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>6590000</v>
+        <v>1199000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6890000</v>
+        <v>1449000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6890000</v>
+        <v>1449000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>7190000</v>
+        <v>2900000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>7190000</v>
+        <v>2900000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5157,35 +5157,35 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1199000</v>
+        <v>1889000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1199000</v>
+        <v>1889000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5194,257 +5194,257 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1449000</v>
+        <v>1528000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1449000</v>
+        <v>1528000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2900000</v>
+        <v>1604000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2900000</v>
+        <v>1604000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1889000</v>
+        <v>2973000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1889000</v>
+        <v>2973000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1528000</v>
+        <v>1299000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1528000</v>
+        <v>1299000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1604000</v>
+        <v>1899000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1604000</v>
+        <v>1899000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2973000</v>
+        <v>2590000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2973000</v>
+        <v>2590000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1299000</v>
+        <v>790000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1299000</v>
+        <v>790000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1899000</v>
+        <v>890000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1899000</v>
+        <v>890000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5454,129 +5454,129 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2590000</v>
+        <v>855000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2590000</v>
+        <v>855000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>790000</v>
+        <v>1199000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>790000</v>
+        <v>1199000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>690000</v>
+        <v>1399000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>690000</v>
+        <v>1399000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>855000</v>
+        <v>1099000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>855000</v>
+        <v>1099000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5586,261 +5586,261 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1199000</v>
+        <v>1869900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1199000</v>
+        <v>1869900</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1399000</v>
+        <v>3199000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1399000</v>
+        <v>3199000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1099000</v>
+        <v>2649000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1099000</v>
+        <v>2649000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1869900</v>
+        <v>3299000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1869900</v>
+        <v>3299000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3199000</v>
+        <v>3499000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3199000</v>
+        <v>3499000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2649000</v>
+        <v>917000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2649000</v>
+        <v>917000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3299000</v>
+        <v>805000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3299000</v>
+        <v>805000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3499000</v>
+        <v>1049000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3499000</v>
+        <v>1049000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5850,129 +5850,129 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>917000</v>
+        <v>831000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>917000</v>
+        <v>831000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>805000</v>
+        <v>690000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>805000</v>
+        <v>690000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1049000</v>
+        <v>650000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1049000</v>
+        <v>650000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>831000</v>
+        <v>670000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>831000</v>
+        <v>670000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -5998,14 +5998,14 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6015,30 +6015,30 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>650000</v>
+        <v>530000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>650000</v>
+        <v>530000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6048,30 +6048,30 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>670000</v>
+        <v>730000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>670000</v>
+        <v>730000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6081,261 +6081,261 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>490000</v>
+        <v>550000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>490000</v>
+        <v>550000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>530000</v>
+        <v>7949000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>530000</v>
+        <v>7949000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>520000</v>
+        <v>990000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>520000</v>
+        <v>990000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>550000</v>
+        <v>1119000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>550000</v>
+        <v>1119000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>7949000</v>
+        <v>1249000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>7949000</v>
+        <v>1249000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>990000</v>
+        <v>740000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>990000</v>
+        <v>740000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1119000</v>
+        <v>930000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1119000</v>
+        <v>930000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1249000</v>
+        <v>1899000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1249000</v>
+        <v>1899000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6345,30 +6345,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>740000</v>
+        <v>1299000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>740000</v>
+        <v>1299000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6378,129 +6378,129 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>930000</v>
+        <v>1222000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>930000</v>
+        <v>1222000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1899000</v>
+        <v>1950000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1899000</v>
+        <v>1950000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1299000</v>
+        <v>1218000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1299000</v>
+        <v>1218000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1222000</v>
+        <v>1380000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1222000</v>
+        <v>1380000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6510,228 +6510,228 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1950000</v>
+        <v>1481000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1950000</v>
+        <v>1481000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>S07</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1218000</v>
+        <v>2049000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1218000</v>
+        <v>2049000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1380000</v>
+        <v>2499000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1380000</v>
+        <v>2499000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1481000</v>
+        <v>4899000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1481000</v>
+        <v>4899000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>S07</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2049000</v>
+        <v>1865000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2049000</v>
+        <v>1865000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2499000</v>
+        <v>2940000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2499000</v>
+        <v>2940000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4899000</v>
+        <v>1767000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4899000</v>
+        <v>1767000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6741,30 +6741,30 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1865000</v>
+        <v>6190000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1865000</v>
+        <v>6190000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6774,30 +6774,30 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2940000</v>
+        <v>8724000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2940000</v>
+        <v>8724000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6807,30 +6807,30 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1767000</v>
+        <v>11456500</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1767000</v>
+        <v>11456500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6840,30 +6840,30 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>6190000</v>
+        <v>7690000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>6190000</v>
+        <v>7690000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6873,195 +6873,195 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>8724000</v>
+        <v>2729000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>8724000</v>
+        <v>2729000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>11456500</v>
+        <v>1499000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>11456500</v>
+        <v>1499000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>7690000</v>
+        <v>1499000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>7690000</v>
+        <v>1499000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2729000</v>
+        <v>1285000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2729000</v>
+        <v>1285000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1499000</v>
+        <v>2438000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1499000</v>
+        <v>2438000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1499000</v>
+        <v>840300</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1499000</v>
+        <v>840300</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7071,30 +7071,30 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1285000</v>
+        <v>4990000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1285000</v>
+        <v>4990000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7104,120 +7104,21 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2438000</v>
+        <v>2499000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2438000</v>
+        <v>2499000</v>
       </c>
       <c r="G203" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>840300</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>840300</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>655</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Teramont</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>4990000</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="F205" t="n">
-        <v>4990000</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F206" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="G206" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>

--- a/xlsx/himki.xlsx
+++ b/xlsx/himki.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2190000</v>
+        <v>2240000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2190000</v>
+        <v>2240000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1699000</v>
+        <v>1049000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1699000</v>
+        <v>1049000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1769000</v>
+        <v>1149000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1769000</v>
+        <v>1149000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1980000</v>
+        <v>1979000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1980000</v>
+        <v>1979000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2682,30 +2682,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1505000</v>
+        <v>2490000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/hyundai/custin/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1505000</v>
+        <v>2490000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/hyundai/custin/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2715,30 +2715,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5640000</v>
+        <v>1219000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5640000</v>
+        <v>1219000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1673000</v>
+        <v>5640000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1673000</v>
+        <v>5640000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Santa Fe New</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3804000</v>
+        <v>1673000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3804000</v>
+        <v>1673000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>899000</v>
+        <v>4299000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>899000</v>
+        <v>4299000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1370000</v>
+        <v>1049000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1370000</v>
+        <v>1049000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sonata New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2214000</v>
+        <v>1370000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2214000</v>
+        <v>1370000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>Sonata New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4990000</v>
+        <v>2214000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4990000</v>
+        <v>2214000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,63 +2946,63 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1394000</v>
+        <v>6990000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1394000</v>
+        <v>6990000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1199000</v>
+        <v>1990000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1199000</v>
+        <v>1990000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3012,30 +3012,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1099000</v>
+        <v>1199000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1099000</v>
+        <v>1199000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1499000</v>
+        <v>1099000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1499000</v>
+        <v>1099000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3078,30 +3078,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2099000</v>
+        <v>1499000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2099000</v>
+        <v>1499000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3111,63 +3111,63 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2319000</v>
+        <v>2099000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2319000</v>
+        <v>2099000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1890000</v>
+        <v>2319000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1890000</v>
+        <v>2319000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3177,63 +3177,63 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3079000</v>
+        <v>1890000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3079000</v>
+        <v>1890000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1290000</v>
+        <v>3079000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1290000</v>
+        <v>3079000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3243,30 +3243,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2499000</v>
+        <v>1290000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2499000</v>
+        <v>1290000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3276,30 +3276,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1090000</v>
+        <v>2499000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1090000</v>
+        <v>2499000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1790000</v>
+        <v>1090000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1790000</v>
+        <v>1090000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3342,30 +3342,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1590000</v>
+        <v>1790000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1590000</v>
+        <v>1790000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,63 +3375,63 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2449900</v>
+        <v>1590000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2449900</v>
+        <v>1590000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>900000</v>
+        <v>2449900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>900000</v>
+        <v>2449900</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1055000</v>
+        <v>900000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1055000</v>
+        <v>900000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3474,30 +3474,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1300000</v>
+        <v>1055000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1300000</v>
+        <v>1055000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3507,63 +3507,63 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2150000</v>
+        <v>1300000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2150000</v>
+        <v>1300000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2249900</v>
+        <v>2150000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2249900</v>
+        <v>2150000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3573,30 +3573,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>713000</v>
+        <v>3490000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>713000</v>
+        <v>3490000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>837</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3606,30 +3606,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Carnival New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>723000</v>
+        <v>4890000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kia/carnival_new/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>723000</v>
+        <v>4890000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kia/carnival_new/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3639,30 +3639,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>850000</v>
+        <v>1349000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>850000</v>
+        <v>1349000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2049000</v>
+        <v>1449000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2049000</v>
+        <v>1449000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3844900</v>
+        <v>850000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3844900</v>
+        <v>850000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>680000</v>
+        <v>2490000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>680000</v>
+        <v>2490000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>899000</v>
+        <v>2790000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/k5_new/</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>899000</v>
+        <v>2790000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/k5_new/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>899000</v>
+        <v>4390000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>899000</v>
+        <v>4390000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>557000</v>
+        <v>890000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>557000</v>
+        <v>890000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>790000</v>
+        <v>1049000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>790000</v>
+        <v>1049000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Seltos New</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1375000</v>
+        <v>899000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1375000</v>
+        <v>899000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1621000</v>
+        <v>690000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1621000</v>
+        <v>690000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2960000</v>
+        <v>790000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2960000</v>
+        <v>790000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>638000</v>
+        <v>1149000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>638000</v>
+        <v>1149000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1143000</v>
+        <v>1621000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1143000</v>
+        <v>1621000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sportage New</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1599900</v>
+        <v>2960000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1599900</v>
+        <v>2960000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Stinger</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2309900</v>
+        <v>1149000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2309900</v>
+        <v>1149000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,162 +4134,162 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1374000</v>
+        <v>1143000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1374000</v>
+        <v>1143000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Sportage New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3199000</v>
+        <v>1599900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3199000</v>
+        <v>1599900</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>Stinger</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1290000</v>
+        <v>3990000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1290000</v>
+        <v>3990000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2599000</v>
+        <v>1749000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2599000</v>
+        <v>1749000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>975000</v>
+        <v>3199000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>975000</v>
+        <v>3199000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>790000</v>
+        <v>1290000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>790000</v>
+        <v>1290000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4332,30 +4332,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>916000</v>
+        <v>2599000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>916000</v>
+        <v>2599000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1060000</v>
+        <v>975000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1060000</v>
+        <v>975000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4398,30 +4398,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1239000</v>
+        <v>790000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1239000</v>
+        <v>790000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1266000</v>
+        <v>916000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1266000</v>
+        <v>916000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1149000</v>
+        <v>1060000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1149000</v>
+        <v>1060000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1329000</v>
+        <v>1239000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1329000</v>
+        <v>1239000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>949000</v>
+        <v>1266000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>949000</v>
+        <v>1266000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>889000</v>
+        <v>1149000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>889000</v>
+        <v>1149000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>934000</v>
+        <v>1329000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>934000</v>
+        <v>1329000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1249000</v>
+        <v>949000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1249000</v>
+        <v>949000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1049000</v>
+        <v>889000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1049000</v>
+        <v>889000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1149000</v>
+        <v>934000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1149000</v>
+        <v>934000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>899000</v>
+        <v>1249000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>899000</v>
+        <v>1249000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>729900</v>
+        <v>1049000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>729900</v>
+        <v>1049000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,228 +4794,228 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>811900</v>
+        <v>1149000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>811900</v>
+        <v>1149000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1099000</v>
+        <v>899000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1099000</v>
+        <v>899000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1049000</v>
+        <v>729900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1049000</v>
+        <v>729900</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1119000</v>
+        <v>811900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1119000</v>
+        <v>811900</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>5990000</v>
+        <v>1099000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>5990000</v>
+        <v>1099000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6590000</v>
+        <v>1049000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6590000</v>
+        <v>1049000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6890000</v>
+        <v>1119000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>6890000</v>
+        <v>1119000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5025,129 +5025,129 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>7190000</v>
+        <v>5990000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>7190000</v>
+        <v>5990000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1199000</v>
+        <v>6590000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1199000</v>
+        <v>6590000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1449000</v>
+        <v>6890000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1449000</v>
+        <v>6890000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2900000</v>
+        <v>7190000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2900000</v>
+        <v>7190000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5157,35 +5157,35 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1889000</v>
+        <v>1199000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1889000</v>
+        <v>1199000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5194,818 +5194,818 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1528000</v>
+        <v>1449000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1528000</v>
+        <v>1449000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1604000</v>
+        <v>2900000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1604000</v>
+        <v>2900000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2973000</v>
+        <v>1889000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2973000</v>
+        <v>1889000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1299000</v>
+        <v>1528000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1299000</v>
+        <v>1528000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1899000</v>
+        <v>1604000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1899000</v>
+        <v>1604000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>CX-50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2590000</v>
+        <v>2490000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2590000</v>
+        <v>2490000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>790000</v>
+        <v>2973000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>790000</v>
+        <v>2973000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>890000</v>
+        <v>1299000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>890000</v>
+        <v>1299000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>855000</v>
+        <v>1899000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>855000</v>
+        <v>1899000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1199000</v>
+        <v>2590000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1199000</v>
+        <v>2590000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1399000</v>
+        <v>790000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1399000</v>
+        <v>790000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1099000</v>
+        <v>890000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1099000</v>
+        <v>890000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1869900</v>
+        <v>855000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1869900</v>
+        <v>855000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3199000</v>
+        <v>1199000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3199000</v>
+        <v>1199000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2649000</v>
+        <v>1399000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2649000</v>
+        <v>1399000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3299000</v>
+        <v>1099000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3299000</v>
+        <v>1099000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3499000</v>
+        <v>1869900</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3499000</v>
+        <v>1869900</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>917000</v>
+        <v>3199000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>917000</v>
+        <v>3199000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>805000</v>
+        <v>2649000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>805000</v>
+        <v>2649000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1049000</v>
+        <v>3299000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1049000</v>
+        <v>3299000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>831000</v>
+        <v>3499000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>831000</v>
+        <v>3499000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>690000</v>
+        <v>917000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>690000</v>
+        <v>917000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>650000</v>
+        <v>805000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>650000</v>
+        <v>805000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>670000</v>
+        <v>1049000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>670000</v>
+        <v>1049000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>690000</v>
+        <v>831000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>690000</v>
+        <v>831000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6015,30 +6015,30 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>530000</v>
+        <v>890000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>530000</v>
+        <v>890000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6048,30 +6048,30 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>730000</v>
+        <v>650000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>730000</v>
+        <v>650000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6081,294 +6081,294 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>550000</v>
+        <v>890000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>550000</v>
+        <v>890000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>7949000</v>
+        <v>690000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>7949000</v>
+        <v>690000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>990000</v>
+        <v>740000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>990000</v>
+        <v>740000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1119000</v>
+        <v>730000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1119000</v>
+        <v>730000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1249000</v>
+        <v>790000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1249000</v>
+        <v>790000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>740000</v>
+        <v>7949000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>740000</v>
+        <v>7949000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>930000</v>
+        <v>990000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>930000</v>
+        <v>990000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1899000</v>
+        <v>1119000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1899000</v>
+        <v>1119000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1299000</v>
+        <v>1249000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1299000</v>
+        <v>1249000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6378,426 +6378,426 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1222000</v>
+        <v>1499000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1222000</v>
+        <v>1499000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1950000</v>
+        <v>1899000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1950000</v>
+        <v>1899000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1218000</v>
+        <v>1899000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1218000</v>
+        <v>1899000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1380000</v>
+        <v>979000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1380000</v>
+        <v>979000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1481000</v>
+        <v>2199000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1481000</v>
+        <v>2199000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>S07</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2049000</v>
+        <v>1950000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2049000</v>
+        <v>1950000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2499000</v>
+        <v>1218000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2499000</v>
+        <v>1218000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>4899000</v>
+        <v>1380000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>4899000</v>
+        <v>1380000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1865000</v>
+        <v>1481000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1865000</v>
+        <v>1481000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>S07</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2940000</v>
+        <v>2049000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2940000</v>
+        <v>2049000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>S09</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1767000</v>
+        <v>2399000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/soueast/s09/</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1767000</v>
+        <v>2399000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/soueast/s09/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6190000</v>
+        <v>2499000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6190000</v>
+        <v>2499000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>8724000</v>
+        <v>4899000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>8724000</v>
+        <v>4899000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6807,30 +6807,30 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>11456500</v>
+        <v>1865000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>11456500</v>
+        <v>1865000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6840,30 +6840,30 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>7690000</v>
+        <v>2940000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>7690000</v>
+        <v>2940000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6873,252 +6873,417 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2729000</v>
+        <v>1767000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2729000</v>
+        <v>1767000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1499000</v>
+        <v>6190000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1499000</v>
+        <v>6190000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1499000</v>
+        <v>8724000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1499000</v>
+        <v>8724000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1285000</v>
+        <v>11456500</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1285000</v>
+        <v>11456500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2438000</v>
+        <v>7690000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2438000</v>
+        <v>7690000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>840300</v>
+        <v>2729000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>840300</v>
+        <v>2729000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4990000</v>
+        <v>1499000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4990000</v>
+        <v>1499000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>2438000</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>2438000</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>899000</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>899000</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Teramont</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
           <t>657</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Tiguan</t>
         </is>
       </c>
-      <c r="D203" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="E203" t="inlineStr">
+      <c r="D208" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="E208" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="F203" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="G203" t="inlineStr">
+      <c r="F208" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>

--- a/xlsx/himki.xlsx
+++ b/xlsx/himki.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4200000</v>
+        <v>2455000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4200000</v>
+        <v>2455000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1490000</v>
+        <v>1390000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1490000</v>
+        <v>1390000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1690000</v>
+        <v>1440000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1690000</v>
+        <v>1440000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2195000</v>
+        <v>1790000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2195000</v>
+        <v>1790000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1713000</v>
+        <v>1499000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1713000</v>
+        <v>1499000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1040000</v>
+        <v>1119900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1040000</v>
+        <v>1119900</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2054000</v>
+        <v>1899000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2054000</v>
+        <v>1899000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2599000</v>
+        <v>1990000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2599000</v>
+        <v>1990000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1528000</v>
+        <v>2490000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1528000</v>
+        <v>2490000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5355,30 +5355,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CX-50</t>
+          <t>CX-5 New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2490000</v>
+        <v>2690000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5_new/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2490000</v>
+        <v>2690000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5_new/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5388,63 +5388,63 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2973000</v>
+        <v>2490000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2973000</v>
+        <v>2490000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1299000</v>
+        <v>2973000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1299000</v>
+        <v>2973000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5454,63 +5454,63 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1899000</v>
+        <v>1299000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1899000</v>
+        <v>1299000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2590000</v>
+        <v>1899000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2590000</v>
+        <v>1899000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5520,30 +5520,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>790000</v>
+        <v>2590000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>790000</v>
+        <v>2590000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5553,30 +5553,30 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>890000</v>
+        <v>790000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>890000</v>
+        <v>790000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5586,63 +5586,63 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>855000</v>
+        <v>890000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>855000</v>
+        <v>890000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1199000</v>
+        <v>855000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1199000</v>
+        <v>855000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5652,30 +5652,30 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1399000</v>
+        <v>1199000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1399000</v>
+        <v>1199000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5685,30 +5685,30 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1099000</v>
+        <v>1399000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1099000</v>
+        <v>1399000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5718,96 +5718,96 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1869900</v>
+        <v>1099000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1869900</v>
+        <v>1099000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>3199000</v>
+        <v>1869900</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3199000</v>
+        <v>1869900</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2649000</v>
+        <v>3199000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2649000</v>
+        <v>3199000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/oting/paladin/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5817,30 +5817,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3299000</v>
+        <v>2649000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3299000</v>
+        <v>2649000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5850,63 +5850,63 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3499000</v>
+        <v>3299000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>3499000</v>
+        <v>3299000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>917000</v>
+        <v>3499000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>917000</v>
+        <v>3499000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5916,30 +5916,30 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>805000</v>
+        <v>917000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>805000</v>
+        <v>917000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5949,30 +5949,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1049000</v>
+        <v>805000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1049000</v>
+        <v>805000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5982,63 +5982,63 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>831000</v>
+        <v>1049000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>831000</v>
+        <v>1049000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>890000</v>
+        <v>831000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>890000</v>
+        <v>831000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6048,30 +6048,30 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>650000</v>
+        <v>890000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>650000</v>
+        <v>890000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6081,30 +6081,30 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>890000</v>
+        <v>650000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>890000</v>
+        <v>650000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6114,30 +6114,30 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>690000</v>
+        <v>890000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>690000</v>
+        <v>890000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6147,30 +6147,30 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>740000</v>
+        <v>690000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>740000</v>
+        <v>690000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6180,30 +6180,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>730000</v>
+        <v>740000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>730000</v>
+        <v>740000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6213,96 +6213,96 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>790000</v>
+        <v>730000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>790000</v>
+        <v>730000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>7949000</v>
+        <v>790000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>7949000</v>
+        <v>790000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>990000</v>
+        <v>6529000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>990000</v>
+        <v>6529000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/rox/01/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6312,30 +6312,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1119000</v>
+        <v>990000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1119000</v>
+        <v>990000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6345,63 +6345,63 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1249000</v>
+        <v>1119000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1249000</v>
+        <v>1119000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1499000</v>
+        <v>1249000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1499000</v>
+        <v>1249000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6411,30 +6411,30 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1899000</v>
+        <v>1499000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1899000</v>
+        <v>1499000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -6460,14 +6460,14 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6477,30 +6477,30 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>979000</v>
+        <v>1899000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>979000</v>
+        <v>1899000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6510,63 +6510,63 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2199000</v>
+        <v>979000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2199000</v>
+        <v>979000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1950000</v>
+        <v>2199000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1950000</v>
+        <v>2199000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6576,30 +6576,30 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1218000</v>
+        <v>1950000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1218000</v>
+        <v>1950000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6609,30 +6609,30 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1380000</v>
+        <v>1218000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1380000</v>
+        <v>1218000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6642,63 +6642,63 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1481000</v>
+        <v>1380000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1481000</v>
+        <v>1380000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>S07</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2049000</v>
+        <v>1481000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2049000</v>
+        <v>1481000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6708,63 +6708,63 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>S09</t>
+          <t>S07</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2399000</v>
+        <v>2049000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s09/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2399000</v>
+        <v>2049000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s09/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>S09</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2499000</v>
+        <v>2399000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/soueast/s09/</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2499000</v>
+        <v>2399000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/soueast/s09/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6774,63 +6774,63 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4899000</v>
+        <v>2499000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4899000</v>
+        <v>2499000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1865000</v>
+        <v>4899000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1865000</v>
+        <v>4899000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6840,30 +6840,30 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2940000</v>
+        <v>1865000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2940000</v>
+        <v>1865000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6873,30 +6873,30 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1767000</v>
+        <v>2940000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1767000</v>
+        <v>2940000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6190000</v>
+        <v>1767000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>6190000</v>
+        <v>1767000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6939,30 +6939,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>8724000</v>
+        <v>6190000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>8724000</v>
+        <v>6190000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6972,30 +6972,30 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>11456500</v>
+        <v>8724000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>11456500</v>
+        <v>8724000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7005,30 +7005,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>7690000</v>
+        <v>11456500</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>7690000</v>
+        <v>11456500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7038,63 +7038,63 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2729000</v>
+        <v>7690000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2729000</v>
+        <v>7690000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1499000</v>
+        <v>2729000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1499000</v>
+        <v>2729000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -7120,47 +7120,47 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1285000</v>
+        <v>1499000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1285000</v>
+        <v>1499000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7170,30 +7170,30 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2438000</v>
+        <v>1285000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2438000</v>
+        <v>1285000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7203,30 +7203,30 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>899000</v>
+        <v>2438000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>899000</v>
+        <v>2438000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7236,54 +7236,87 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>6990000</v>
+        <v>899000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>6990000</v>
+        <v>899000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Teramont</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
           <t>657</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Tiguan</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D209" t="n">
         <v>1990000</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="F208" t="n">
+      <c r="F209" t="n">
         <v>1990000</v>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>

--- a/xlsx/himki.xlsx
+++ b/xlsx/himki.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1779000</v>
+        <v>2199000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1779000</v>
+        <v>2199000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1197,30 +1197,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 7L</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1859000</v>
+        <v>1549000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/chery/tiggo_8_pro_max/</t>
+          <t>https://autogansa.ru/cars/chery/tiggo_7l/</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1859000</v>
+        <v>1549000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/chery/tiggo_8_pro_max/</t>
+          <t>https://autogansa.ru/cars/chery/tiggo_7l/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1230,63 +1230,63 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 9</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3649000</v>
+        <v>1859000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/chery/tiggo_9/</t>
+          <t>https://autogansa.ru/cars/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3649000</v>
+        <v>1859000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/chery/tiggo_9/</t>
+          <t>https://autogansa.ru/cars/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Citroen</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C5 Aircross</t>
+          <t>Tiggo 9</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3199000</v>
+        <v>3649000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/citroen/c5_aircross/</t>
+          <t>https://autogansa.ru/cars/chery/tiggo_9/</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3199000</v>
+        <v>3649000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/citroen/c5_aircross/</t>
+          <t>https://autogansa.ru/cars/chery/tiggo_9/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1296,63 +1296,63 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C5 X</t>
+          <t>C5 Aircross</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3599000</v>
+        <v>3199000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/citroen/c5_x/</t>
+          <t>https://autogansa.ru/cars/citroen/c5_aircross/</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3599000</v>
+        <v>3199000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/citroen/c5_x/</t>
+          <t>https://autogansa.ru/cars/citroen/c5_aircross/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Citroen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>C5 X</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1149000</v>
+        <v>3599000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/580/</t>
+          <t>https://autogansa.ru/cars/citroen/c5_x/</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1149000</v>
+        <v>3599000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/580/</t>
+          <t>https://autogansa.ru/cars/citroen/c5_x/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1362,30 +1362,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DF6</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1949000</v>
+        <v>1149000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/df6/</t>
+          <t>https://autogansa.ru/cars/dongfeng/580/</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1949000</v>
+        <v>1149000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/df6/</t>
+          <t>https://autogansa.ru/cars/dongfeng/580/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1395,30 +1395,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DFSK 500</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1099000</v>
+        <v>1799000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/dfsk_500/</t>
+          <t>https://autogansa.ru/cars/dongfeng/df6/</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1099000</v>
+        <v>1799000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/dfsk_500/</t>
+          <t>https://autogansa.ru/cars/dongfeng/df6/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,30 +1428,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DFSK 500</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1390000</v>
+        <v>1099000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix5/</t>
+          <t>https://autogansa.ru/cars/dongfeng/dfsk_500/</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1390000</v>
+        <v>1099000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix5/</t>
+          <t>https://autogansa.ru/cars/dongfeng/dfsk_500/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1461,30 +1461,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2090000</v>
+        <v>1390000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix7/</t>
+          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix5/</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2090000</v>
+        <v>1390000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix7/</t>
+          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix5/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1494,63 +1494,63 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1399000</v>
+        <v>2490000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/shine_max/</t>
+          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix7/</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1399000</v>
+        <v>2490000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/dongfeng/shine_max/</t>
+          <t>https://autogansa.ru/cars/dongfeng/dfsk_ix7/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1799000</v>
+        <v>1399000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/lx/</t>
+          <t>https://autogansa.ru/cars/dongfeng/shine_max/</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1799000</v>
+        <v>1399000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/lx/</t>
+          <t>https://autogansa.ru/cars/dongfeng/shine_max/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1560,30 +1560,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2190000</v>
+        <v>1799000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/lx_new/</t>
+          <t>https://autogansa.ru/cars/exeed/lx/</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2190000</v>
+        <v>1799000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/lx_new/</t>
+          <t>https://autogansa.ru/cars/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1593,30 +1593,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3250000</v>
+        <v>2190000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/rx/</t>
+          <t>https://autogansa.ru/cars/exeed/lx_new/</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3250000</v>
+        <v>2190000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/rx/</t>
+          <t>https://autogansa.ru/cars/exeed/lx_new/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1626,30 +1626,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2480000</v>
+        <v>3250000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/txl/</t>
+          <t>https://autogansa.ru/cars/exeed/rx/</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2480000</v>
+        <v>3250000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/txl/</t>
+          <t>https://autogansa.ru/cars/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1659,63 +1659,63 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3490000</v>
+        <v>2480000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/vx/</t>
+          <t>https://autogansa.ru/cars/exeed/txl/</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3490000</v>
+        <v>2480000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/exeed/vx/</t>
+          <t>https://autogansa.ru/cars/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1199000</v>
+        <v>3490000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/gac/gs3/</t>
+          <t>https://autogansa.ru/cars/exeed/vx/</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1199000</v>
+        <v>3490000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/gac/gs3/</t>
+          <t>https://autogansa.ru/cars/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1725,30 +1725,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2690000</v>
+        <v>1199000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/gac/gs8/</t>
+          <t>https://autogansa.ru/cars/gac/gs3/</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2690000</v>
+        <v>1199000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/gac/gs8/</t>
+          <t>https://autogansa.ru/cars/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1758,96 +1758,96 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5099000</v>
+        <v>2690000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/gac/m8/</t>
+          <t>https://autogansa.ru/cars/gac/gs8/</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5099000</v>
+        <v>2690000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/gac/m8/</t>
+          <t>https://autogansa.ru/cars/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8 Traveller</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>690000</v>
+        <v>3540000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/atlas/</t>
+          <t>https://autogansa.ru/cars/gac/gs8_traveller/</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>690000</v>
+        <v>3540000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/atlas/</t>
+          <t>https://autogansa.ru/cars/gac/gs8_traveller/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1499000</v>
+        <v>5099000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/atlas_new/</t>
+          <t>https://autogansa.ru/cars/gac/m8/</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1499000</v>
+        <v>5099000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/atlas_new/</t>
+          <t>https://autogansa.ru/cars/gac/m8/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1857,30 +1857,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>790000</v>
+        <v>690000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/atlas_pro/</t>
+          <t>https://autogansa.ru/cars/geely/atlas/</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>790000</v>
+        <v>690000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/atlas_pro/</t>
+          <t>https://autogansa.ru/cars/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/cityray/</t>
+          <t>https://autogansa.ru/cars/geely/atlas_new/</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1906,14 +1906,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/cityray/</t>
+          <t>https://autogansa.ru/cars/geely/atlas_new/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1923,30 +1923,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>850000</v>
+        <v>790000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray/</t>
+          <t>https://autogansa.ru/cars/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>850000</v>
+        <v>790000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray/</t>
+          <t>https://autogansa.ru/cars/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1115000</v>
+        <v>1499000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
+          <t>https://autogansa.ru/cars/geely/cityray/</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1115000</v>
+        <v>1499000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
+          <t>https://autogansa.ru/cars/geely/cityray/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1989,30 +1989,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1119900</v>
+        <v>850000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/emgrand/</t>
+          <t>https://autogansa.ru/cars/geely/coolray/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1119900</v>
+        <v>850000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/emgrand/</t>
+          <t>https://autogansa.ru/cars/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2899000</v>
+        <v>1115000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro/</t>
+          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2899000</v>
+        <v>1115000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro/</t>
+          <t>https://autogansa.ru/cars/geely/coolray_new/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2055,30 +2055,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Monjaro New</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3099000</v>
+        <v>1119900</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
+          <t>https://autogansa.ru/cars/geely/emgrand/</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3099000</v>
+        <v>1119900</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
+          <t>https://autogansa.ru/cars/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,30 +2088,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1854000</v>
+        <v>2899000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro/</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1854000</v>
+        <v>2899000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1899000</v>
+        <v>3099000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1899000</v>
+        <v>3099000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
+          <t>https://autogansa.ru/cars/geely/monjaro_new/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1990000</v>
+        <v>1854000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/preface/</t>
+          <t>https://autogansa.ru/cars/geely/okavango/</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1990000</v>
+        <v>1854000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/preface/</t>
+          <t>https://autogansa.ru/cars/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tugella</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1620000</v>
+        <v>1899000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella/</t>
+          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1620000</v>
+        <v>1899000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella/</t>
+          <t>https://autogansa.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2220,96 +2220,96 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Preface</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1950000</v>
+        <v>1990000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
+          <t>https://autogansa.ru/cars/geely/preface/</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1950000</v>
+        <v>1990000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
+          <t>https://autogansa.ru/cars/geely/preface/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1990000</v>
+        <v>1620000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo/</t>
+          <t>https://autogansa.ru/cars/geely/tugella/</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1990000</v>
+        <v>1620000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo/</t>
+          <t>https://autogansa.ru/cars/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2240000</v>
+        <v>1950000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
+          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2240000</v>
+        <v>1950000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
+          <t>https://autogansa.ru/cars/geely/tugella_new/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2319,30 +2319,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1049000</v>
+        <v>1990000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7/</t>
+          <t>https://autogansa.ru/cars/haval/dargo/</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1049000</v>
+        <v>1990000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7/</t>
+          <t>https://autogansa.ru/cars/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1699000</v>
+        <v>2240000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_f7/</t>
+          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1699000</v>
+        <v>2240000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_f7/</t>
+          <t>https://autogansa.ru/cars/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1149000</v>
+        <v>1049000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7x/</t>
+          <t>https://autogansa.ru/cars/haval/f7/</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1149000</v>
+        <v>1049000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/f7x/</t>
+          <t>https://autogansa.ru/cars/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1979000</v>
+        <v>1699000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h3/</t>
+          <t>https://autogansa.ru/cars/haval/new_f7/</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1979000</v>
+        <v>1699000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h3/</t>
+          <t>https://autogansa.ru/cars/haval/new_f7/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2451,30 +2451,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2759000</v>
+        <v>1149000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h5/</t>
+          <t>https://autogansa.ru/cars/haval/f7x/</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2759000</v>
+        <v>1149000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h5/</t>
+          <t>https://autogansa.ru/cars/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3790000</v>
+        <v>2349000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h9/</t>
+          <t>https://autogansa.ru/cars/haval/new_f7x/</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3790000</v>
+        <v>2349000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/h9/</t>
+          <t>https://autogansa.ru/cars/haval/new_f7x/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1019000</v>
+        <v>1979000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/jolion/</t>
+          <t>https://autogansa.ru/cars/haval/h3/</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1019000</v>
+        <v>1979000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/jolion/</t>
+          <t>https://autogansa.ru/cars/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1119000</v>
+        <v>2759000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
+          <t>https://autogansa.ru/cars/haval/h5/</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1119000</v>
+        <v>2759000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
+          <t>https://autogansa.ru/cars/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2583,162 +2583,162 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>H7 New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>890000</v>
+        <v>2449000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/m6/</t>
+          <t>https://autogansa.ru/cars/haval/new_h7/</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>890000</v>
+        <v>2449000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/haval/m6/</t>
+          <t>https://autogansa.ru/cars/haval/new_h7/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>590000</v>
+        <v>3790000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
+          <t>https://autogansa.ru/cars/haval/h9/</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>590000</v>
+        <v>3790000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
+          <t>https://autogansa.ru/cars/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>864000</v>
+        <v>1019000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta/</t>
+          <t>https://autogansa.ru/cars/haval/jolion/</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>864000</v>
+        <v>1019000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/creta/</t>
+          <t>https://autogansa.ru/cars/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Custin</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2490000</v>
+        <v>1119000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/custin/</t>
+          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2490000</v>
+        <v>1119000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/custin/</t>
+          <t>https://autogansa.ru/cars/haval/new_jolion/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1219000</v>
+        <v>890000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/haval/m6/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1219000</v>
+        <v>890000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
+          <t>https://autogansa.ru/cars/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Palisade</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5640000</v>
+        <v>590000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5640000</v>
+        <v>590000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta_old/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1673000</v>
+        <v>864000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1673000</v>
+        <v>864000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
+          <t>https://autogansa.ru/cars/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Santa Fe New</t>
+          <t>Custin</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4299000</v>
+        <v>2490000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/custin/</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4299000</v>
+        <v>2490000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/custin/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1049000</v>
+        <v>1219000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1049000</v>
+        <v>1219000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
+          <t>https://autogansa.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2880,30 +2880,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Palisade</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1370000</v>
+        <v>5640000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1370000</v>
+        <v>5640000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
+          <t>https://autogansa.ru/cars/hyundai/palisade/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sonata New</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2214000</v>
+        <v>2349000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2214000</v>
+        <v>2349000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2946,30 +2946,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Staria</t>
+          <t>Santa Fe New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6990000</v>
+        <v>4299000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6990000</v>
+        <v>4299000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/staria/</t>
+          <t>https://autogansa.ru/cars/hyundai/santa_fe_new/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2979,162 +2979,162 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1990000</v>
+        <v>1049000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1990000</v>
+        <v>1049000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
+          <t>https://autogansa.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1199000</v>
+        <v>1370000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1199000</v>
+        <v>1370000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/j7/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>Sonata New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1099000</v>
+        <v>2214000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1099000</v>
+        <v>2214000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js3/</t>
+          <t>https://autogansa.ru/cars/hyundai/sonata_new/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>Staria</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1499000</v>
+        <v>6990000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1499000</v>
+        <v>6990000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/js6/</t>
+          <t>https://autogansa.ru/cars/hyundai/staria/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2099000</v>
+        <v>1990000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2099000</v>
+        <v>1990000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8/</t>
+          <t>https://autogansa.ru/cars/hyundai/tucson_new/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3144,228 +3144,228 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2319000</v>
+        <v>1049000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2319000</v>
+        <v>1049000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
+          <t>https://autogansa.ru/cars/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1890000</v>
+        <v>1099000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1890000</v>
+        <v>1099000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
+          <t>https://autogansa.ru/cars/jac/js3/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3079000</v>
+        <v>1499000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3079000</v>
+        <v>1499000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
+          <t>https://autogansa.ru/cars/jac/js6/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1290000</v>
+        <v>2099000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1290000</v>
+        <v>2099000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/dashing/</t>
+          <t>https://autogansa.ru/cars/jac/t8/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2499000</v>
+        <v>2319000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2499000</v>
+        <v>2319000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/t2/</t>
+          <t>https://autogansa.ru/cars/jac/t8_pro/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1090000</v>
+        <v>1890000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1090000</v>
+        <v>1890000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x50/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1790000</v>
+        <v>3079000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1790000</v>
+        <v>3079000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70/</t>
+          <t>https://autogansa.ru/cars/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3375,30 +3375,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1590000</v>
+        <v>1290000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1590000</v>
+        <v>1290000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3408,294 +3408,294 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2449900</v>
+        <v>2499000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2449900</v>
+        <v>2499000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
+          <t>https://autogansa.ru/cars/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>900000</v>
+        <v>1090000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>900000</v>
+        <v>1090000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
+          <t>https://autogansa.ru/cars/jetour/x50/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1055000</v>
+        <v>1790000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1055000</v>
+        <v>1790000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
+          <t>https://autogansa.ru/cars/jetour/x70/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1300000</v>
+        <v>1590000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1300000</v>
+        <v>1590000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
+          <t>https://autogansa.ru/cars/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2150000</v>
+        <v>2449000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2150000</v>
+        <v>2449000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
+          <t>https://autogansa.ru/cars/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carnival</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3490000</v>
+        <v>899000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3490000</v>
+        <v>899000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival/</t>
+          <t>https://autogansa.ru/cars/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Carnival New</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4890000</v>
+        <v>1049000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival_new/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4890000</v>
+        <v>1049000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/carnival_new/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1349000</v>
+        <v>1199000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1349000</v>
+        <v>1199000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1449000</v>
+        <v>1899000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1449000</v>
+        <v>1899000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
+          <t>https://autogansa.ru/cars/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3705,30 +3705,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Carnival</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>850000</v>
+        <v>3490000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>850000</v>
+        <v>3490000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/cerato/</t>
+          <t>https://autogansa.ru/cars/kia/carnival/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>837</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Carnival New</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2490000</v>
+        <v>5799000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/carnival_new/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2490000</v>
+        <v>5799000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5/</t>
+          <t>https://autogansa.ru/cars/kia/carnival_new/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>K5 New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2790000</v>
+        <v>1349000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5_new/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2790000</v>
+        <v>1349000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/k5_new/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3804,30 +3804,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mohave</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4390000</v>
+        <v>1449000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4390000</v>
+        <v>1449000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/mohave/</t>
+          <t>https://autogansa.ru/cars/kia/new_ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3837,30 +3837,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>890000</v>
+        <v>850000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>890000</v>
+        <v>850000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/picanto/</t>
+          <t>https://autogansa.ru/cars/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1049000</v>
+        <v>2490000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1049000</v>
+        <v>2490000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio/</t>
+          <t>https://autogansa.ru/cars/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3903,30 +3903,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>K5 New</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>899000</v>
+        <v>2890000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/k5_new/</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>899000</v>
+        <v>2890000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio-x/</t>
+          <t>https://autogansa.ru/cars/kia/k5_new/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Mohave</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>690000</v>
+        <v>4390000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>690000</v>
+        <v>4390000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
+          <t>https://autogansa.ru/cars/kia/mohave/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>790000</v>
+        <v>1089000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>790000</v>
+        <v>1089000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/seltos/</t>
+          <t>https://autogansa.ru/cars/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Seltos New</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1149000</v>
+        <v>1049000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1149000</v>
+        <v>1049000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
+          <t>https://autogansa.ru/cars/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4035,30 +4035,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sorento</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1621000</v>
+        <v>899000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1621000</v>
+        <v>899000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento/</t>
+          <t>https://autogansa.ru/cars/kia/rio-x/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2960000</v>
+        <v>690000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2960000</v>
+        <v>690000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
+          <t>https://autogansa.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4101,30 +4101,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1149000</v>
+        <v>790000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1149000</v>
+        <v>790000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/soul/</t>
+          <t>https://autogansa.ru/cars/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4134,30 +4134,30 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Seltos New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1143000</v>
+        <v>1149000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1143000</v>
+        <v>1149000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage/</t>
+          <t>https://autogansa.ru/cars/kia/new_seltos/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sportage New</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1599900</v>
+        <v>1621000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1599900</v>
+        <v>1621000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
+          <t>https://autogansa.ru/cars/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4200,30 +4200,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Stinger</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3990000</v>
+        <v>4949000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3990000</v>
+        <v>4949000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/stinger/</t>
+          <t>https://autogansa.ru/cars/kia/sorento_new/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4233,228 +4233,228 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1749000</v>
+        <v>1149000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1749000</v>
+        <v>1149000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/kia/xceed/</t>
+          <t>https://autogansa.ru/cars/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Knewstar</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>Soul New</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3199000</v>
+        <v>1699000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/kia/soul_new/</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3199000</v>
+        <v>1699000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/knewstar/001/</t>
+          <t>https://autogansa.ru/cars/kia/soul_new/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4x4 Bronto</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1290000</v>
+        <v>1499000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1290000</v>
+        <v>1499000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/bronto/</t>
+          <t>https://autogansa.ru/cars/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>Sportage New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2599000</v>
+        <v>1949000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2599000</v>
+        <v>1949000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/aura/</t>
+          <t>https://autogansa.ru/cars/kia/sportage_new/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Stinger</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>975000</v>
+        <v>3990000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>975000</v>
+        <v>3990000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
+          <t>https://autogansa.ru/cars/kia/stinger/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>790000</v>
+        <v>1749000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>790000</v>
+        <v>1749000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
+          <t>https://autogansa.ru/cars/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Knewstar</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>916000</v>
+        <v>3199000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>916000</v>
+        <v>3199000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
+          <t>https://autogansa.ru/cars/knewstar/001/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4464,30 +4464,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>4x4 Bronto</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1060000</v>
+        <v>1290000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1060000</v>
+        <v>1290000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_5/</t>
+          <t>https://autogansa.ru/cars/lada/bronto/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1239000</v>
+        <v>2599000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1239000</v>
+        <v>2599000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
+          <t>https://autogansa.ru/cars/lada/aura/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4530,30 +4530,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1266000</v>
+        <v>975000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1266000</v>
+        <v>975000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
+          <t>https://autogansa.ru/cars/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Largus New 7 мест</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1149000</v>
+        <v>790000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1149000</v>
+        <v>790000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_7/</t>
+          <t>https://autogansa.ru/cars/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1329000</v>
+        <v>916000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1329000</v>
+        <v>916000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
+          <t>https://autogansa.ru/cars/lada/granta_sd/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>949000</v>
+        <v>1060000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>949000</v>
+        <v>1060000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_5/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4662,30 +4662,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>889000</v>
+        <v>1239000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>889000</v>
+        <v>1239000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_5/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>934000</v>
+        <v>1449000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>934000</v>
+        <v>1449000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
+          <t>https://autogansa.ru/cars/lada/largus_cross_7/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus New 7 мест</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1249000</v>
+        <v>1149000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1249000</v>
+        <v>1149000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
+          <t>https://autogansa.ru/cars/lada/largus_7/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4761,30 +4761,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1049000</v>
+        <v>1329000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1049000</v>
+        <v>1329000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
+          <t>https://autogansa.ru/cars/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1149000</v>
+        <v>949000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1149000</v>
+        <v>949000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_3d/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4827,30 +4827,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>899000</v>
+        <v>889000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>899000</v>
+        <v>889000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/vesta/</t>
+          <t>https://autogansa.ru/cars/lada/niva_legend_5d/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>729900</v>
+        <v>934000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>729900</v>
+        <v>934000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray/</t>
+          <t>https://autogansa.ru/cars/lada/niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4893,1350 +4893,1350 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>811900</v>
+        <v>1249000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>811900</v>
+        <v>1249000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1099000</v>
+        <v>1049000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1099000</v>
+        <v>1049000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1049000</v>
+        <v>1149000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1049000</v>
+        <v>1149000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1119000</v>
+        <v>899000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1119000</v>
+        <v>899000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
+          <t>https://autogansa.ru/cars/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>5990000</v>
+        <v>919900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>5990000</v>
+        <v>919900</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l6/</t>
+          <t>https://autogansa.ru/cars/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6590000</v>
+        <v>1019900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>6590000</v>
+        <v>1019900</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l7/</t>
+          <t>https://autogansa.ru/cars/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6890000</v>
+        <v>1099000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6890000</v>
+        <v>1099000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l8/</t>
+          <t>https://autogansa.ru/cars/livan/s6_pro/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>7190000</v>
+        <v>1049000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>7190000</v>
+        <v>1049000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/lixiang/l9/</t>
+          <t>https://autogansa.ru/cars/livan/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1199000</v>
+        <v>1119000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1199000</v>
+        <v>1119000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/5/</t>
+          <t>https://autogansa.ru/cars/livan/x6_pro/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1449000</v>
+        <v>5990000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1449000</v>
+        <v>5990000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l6/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2900000</v>
+        <v>6590000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2900000</v>
+        <v>6590000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/hs/</t>
+          <t>https://autogansa.ru/cars/lixiang/l7/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1889000</v>
+        <v>6890000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1889000</v>
+        <v>6890000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mg/zs/</t>
+          <t>https://autogansa.ru/cars/lixiang/l8/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2490000</v>
+        <v>7190000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2490000</v>
+        <v>7190000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/6/</t>
+          <t>https://autogansa.ru/cars/lixiang/l9/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1604000</v>
+        <v>1199000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1604000</v>
+        <v>1199000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
+          <t>https://autogansa.ru/cars/mg/5/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CX-5 New</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2690000</v>
+        <v>1449000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5_new/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2690000</v>
+        <v>1449000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-5_new/</t>
+          <t>https://autogansa.ru/cars/mg/6/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CX-50</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2490000</v>
+        <v>2900000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2490000</v>
+        <v>2900000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
+          <t>https://autogansa.ru/cars/mg/hs/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2973000</v>
+        <v>1889000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2973000</v>
+        <v>1889000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
+          <t>https://autogansa.ru/cars/mg/zs/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1299000</v>
+        <v>2490000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1299000</v>
+        <v>2490000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/3/</t>
+          <t>https://autogansa.ru/cars/mazda/6/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1899000</v>
+        <v>1604000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1899000</v>
+        <v>1604000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/moskvich/6/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>CX-5 New</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2590000</v>
+        <v>2690000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5_new/</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2590000</v>
+        <v>2690000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/murano/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-5_new/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>CX-50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>790000</v>
+        <v>2490000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>790000</v>
+        <v>2490000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>890000</v>
+        <v>2973000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>890000</v>
+        <v>2973000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/terrano/</t>
+          <t>https://autogansa.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>855000</v>
+        <v>1299000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>855000</v>
+        <v>1299000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
+          <t>https://autogansa.ru/cars/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1199000</v>
+        <v>1899000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1199000</v>
+        <v>1899000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5/</t>
+          <t>https://autogansa.ru/cars/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1399000</v>
+        <v>2590000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1399000</v>
+        <v>2590000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
+          <t>https://autogansa.ru/cars/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1099000</v>
+        <v>1499000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1099000</v>
+        <v>1499000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5/</t>
+          <t>https://autogansa.ru/cars/nissan/qashqai_new/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1869900</v>
+        <v>1049000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1869900</v>
+        <v>1049000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
+          <t>https://autogansa.ru/cars/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3199000</v>
+        <v>855000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3199000</v>
+        <v>855000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/oting/paladin/</t>
+          <t>https://autogansa.ru/cars/nissan/x_trail/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2008 New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2649000</v>
+        <v>1199000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2649000</v>
+        <v>1199000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/2008/</t>
+          <t>https://autogansa.ru/cars/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3299000</v>
+        <v>1399000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>3299000</v>
+        <v>1399000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/4008/</t>
+          <t>https://autogansa.ru/cars/omoda/c5_new/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3499000</v>
+        <v>2054000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/omoda/c7_new/</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3499000</v>
+        <v>2054000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/peugeot/5008/</t>
+          <t>https://autogansa.ru/cars/omoda/c7_new/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>917000</v>
+        <v>1099000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>917000</v>
+        <v>1099000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/gentra/</t>
+          <t>https://autogansa.ru/cars/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>805000</v>
+        <v>1869900</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>805000</v>
+        <v>1869900</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
+          <t>https://autogansa.ru/cars/omoda/s5_gt/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Palasso</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1049000</v>
+        <v>2890000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/oting/palasso/</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1049000</v>
+        <v>2890000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r2/</t>
+          <t>https://autogansa.ru/cars/oting/palasso/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>2008 New</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>831000</v>
+        <v>2649000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>831000</v>
+        <v>2649000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/ravon/r4/</t>
+          <t>https://autogansa.ru/cars/peugeot/2008/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>890000</v>
+        <v>3299000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>890000</v>
+        <v>3299000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/arkana/</t>
+          <t>https://autogansa.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>650000</v>
+        <v>3499000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>650000</v>
+        <v>3499000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/duster_new/</t>
+          <t>https://autogansa.ru/cars/peugeot/5008/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>890000</v>
+        <v>1099000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>890000</v>
+        <v>1099000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/kaptur/</t>
+          <t>https://autogansa.ru/cars/ravon/gentra/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>690000</v>
+        <v>1019000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>690000</v>
+        <v>1019000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan/</t>
+          <t>https://autogansa.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>740000</v>
+        <v>1049000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>740000</v>
+        <v>1049000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
+          <t>https://autogansa.ru/cars/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>730000</v>
+        <v>1049000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>730000</v>
+        <v>1049000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero/</t>
+          <t>https://autogansa.ru/cars/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6246,756 +6246,756 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>790000</v>
+        <v>890000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>790000</v>
+        <v>890000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
+          <t>https://autogansa.ru/cars/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>6529000</v>
+        <v>650000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>6529000</v>
+        <v>650000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/rox/01/</t>
+          <t>https://autogansa.ru/cars/renault/duster_new/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>990000</v>
+        <v>1349000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>990000</v>
+        <v>1349000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01/</t>
+          <t>https://autogansa.ru/cars/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1119000</v>
+        <v>949000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1119000</v>
+        <v>949000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g01f/</t>
+          <t>https://autogansa.ru/cars/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1249000</v>
+        <v>1019000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1249000</v>
+        <v>1019000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
+          <t>https://autogansa.ru/cars/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1499000</v>
+        <v>989000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1499000</v>
+        <v>989000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/karoq/</t>
+          <t>https://autogansa.ru/cars/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1899000</v>
+        <v>1049000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1899000</v>
+        <v>1049000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
+          <t>https://autogansa.ru/cars/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1899000</v>
+        <v>1249000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1899000</v>
+        <v>1249000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/octavia/</t>
+          <t>https://autogansa.ru/cars/swm/g01/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>979000</v>
+        <v>1390000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>979000</v>
+        <v>1390000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/rapid/</t>
+          <t>https://autogansa.ru/cars/swm/g01f/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2199000</v>
+        <v>1299000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2199000</v>
+        <v>1299000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/skoda/superb/</t>
+          <t>https://autogansa.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1950000</v>
+        <v>1499000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1950000</v>
+        <v>1499000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hc/</t>
+          <t>https://autogansa.ru/cars/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1218000</v>
+        <v>2749000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1218000</v>
+        <v>2749000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/hs/</t>
+          <t>https://autogansa.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1380000</v>
+        <v>1899000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1380000</v>
+        <v>1899000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krs/</t>
+          <t>https://autogansa.ru/cars/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1481000</v>
+        <v>1049000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1481000</v>
+        <v>1049000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/solaris/krx/</t>
+          <t>https://autogansa.ru/cars/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>S07</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2049000</v>
+        <v>2199000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2049000</v>
+        <v>2199000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s07/</t>
+          <t>https://autogansa.ru/cars/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>S09</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2399000</v>
+        <v>1950000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s09/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2399000</v>
+        <v>1950000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/soueast/s09/</t>
+          <t>https://autogansa.ru/cars/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2499000</v>
+        <v>1220000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2499000</v>
+        <v>1220000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/300/</t>
+          <t>https://autogansa.ru/cars/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>4899000</v>
+        <v>1380000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4899000</v>
+        <v>1380000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/tank/500/</t>
+          <t>https://autogansa.ru/cars/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1865000</v>
+        <v>1481000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1865000</v>
+        <v>1481000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
+          <t>https://autogansa.ru/cars/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>S07</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2940000</v>
+        <v>1899000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2940000</v>
+        <v>1899000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/camry/</t>
+          <t>https://autogansa.ru/cars/soueast/s07/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>S09</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1767000</v>
+        <v>2199000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/soueast/s09/</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1767000</v>
+        <v>2199000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/corolla/</t>
+          <t>https://autogansa.ru/cars/soueast/s09/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6190000</v>
+        <v>2499000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>6190000</v>
+        <v>2499000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/highlander/</t>
+          <t>https://autogansa.ru/cars/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>8724000</v>
+        <v>4899000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>8724000</v>
+        <v>4899000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
+          <t>https://autogansa.ru/cars/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -7005,30 +7005,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>11456500</v>
+        <v>1865000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>11456500</v>
+        <v>1865000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://autogansa.ru/cars/toyota/c-hr/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -7038,30 +7038,30 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>7690000</v>
+        <v>2940000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>7690000</v>
+        <v>2940000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
+          <t>https://autogansa.ru/cars/toyota/camry/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -7071,252 +7071,417 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2729000</v>
+        <v>1767000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2729000</v>
+        <v>1767000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/toyota/rav4/</t>
+          <t>https://autogansa.ru/cars/toyota/corolla/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1499000</v>
+        <v>6190000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1499000</v>
+        <v>6190000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/patriot/</t>
+          <t>https://autogansa.ru/cars/toyota/highlander/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1499000</v>
+        <v>8724000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1499000</v>
+        <v>8724000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1285000</v>
+        <v>11456500</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1285000</v>
+        <v>11456500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2438000</v>
+        <v>7690000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2438000</v>
+        <v>7690000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+          <t>https://autogansa.ru/cars/toyota/land_cruiser_250_prado/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>899000</v>
+        <v>2729000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>899000</v>
+        <v>2729000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+          <t>https://autogansa.ru/cars/toyota/rav4/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6990000</v>
+        <v>1499000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>6990000</v>
+        <v>1499000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+          <t>https://autogansa.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>2438000</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>2438000</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Teramont</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>6990000</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>https://autogansa.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
           <t>657</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Tiguan</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D214" t="n">
         <v>1990000</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="F209" t="n">
+      <c r="F214" t="n">
         <v>1990000</v>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>https://autogansa.ru/cars/volkswagen/tiguan/</t>
         </is>
